--- a/database/user_database.xlsx
+++ b/database/user_database.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>First Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Calorie goal</t>
   </si>
   <si>
-    <t>John</t>
+    <t>Johnn</t>
   </si>
   <si>
     <t>Steve</t>
@@ -112,19 +112,16 @@
     <t>Female</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>2500</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
 </sst>
 </file>
@@ -542,23 +539,23 @@
       <c r="F2" t="s">
         <v>30</v>
       </c>
-      <c r="G2">
-        <v>1</v>
+      <c r="G2" t="s">
+        <v>32</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>1991</v>
+      <c r="I2" t="s">
+        <v>33</v>
       </c>
       <c r="J2">
         <v>72</v>
       </c>
-      <c r="K2">
-        <v>210</v>
-      </c>
-      <c r="L2">
-        <v>100</v>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -694,23 +691,23 @@
       <c r="F6" t="s">
         <v>30</v>
       </c>
-      <c r="G6" t="s">
-        <v>32</v>
+      <c r="G6">
+        <v>12</v>
       </c>
       <c r="H6">
         <v>9</v>
       </c>
-      <c r="I6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" t="s">
-        <v>36</v>
+      <c r="I6">
+        <v>1998</v>
+      </c>
+      <c r="J6">
+        <v>67</v>
+      </c>
+      <c r="K6">
+        <v>110</v>
+      </c>
+      <c r="L6">
+        <v>2500</v>
       </c>
     </row>
   </sheetData>
